--- a/public/template/Radian Settlement Services Inc_sample_template.xlsx
+++ b/public/template/Radian Settlement Services Inc_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3486C3-AB4B-4AB9-9A29-912140AFBDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC909CD3-D6C5-4468-B250-A663F35C4038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="1152" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>SIPL0004</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>WIP</t>
   </si>
   <si>
-    <t>SIPL0005</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>Typist QC</t>
   </si>
   <si>
-    <t>SIPL0102</t>
-  </si>
-  <si>
-    <t>SIPL0103</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
@@ -104,13 +92,37 @@
     <t>Radian Settlement Services Inc</t>
   </si>
   <si>
-    <t>Radian Search &amp; Type</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Two Owner Search</t>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>RSS18-001</t>
+  </si>
+  <si>
+    <t>SIPL5316</t>
+  </si>
+  <si>
+    <t>SIPL5688</t>
+  </si>
+  <si>
+    <t>SIPL5317</t>
+  </si>
+  <si>
+    <t>Radian Search and Type</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>RSS18-002</t>
+  </si>
+  <si>
+    <t>Update Search</t>
   </si>
 </sst>
 </file>
@@ -456,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -586,6 +598,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -631,12 +656,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,25 +1018,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="10" width="16" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1024,22 +1052,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -1050,88 +1078,93 @@
       <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45436.041666666664</v>
       </c>
-      <c r="B2" s="1">
-        <v>12132783</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45439.083333333336</v>
       </c>
-      <c r="B3" s="1">
-        <v>21938321</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
